--- a/账目/账目2016-01.xlsx
+++ b/账目/账目2016-01.xlsx
@@ -13,18 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="1" r:id="rId1"/>
-    <sheet name="20160117吉它买卖" sheetId="13" r:id="rId2"/>
-    <sheet name="20160116吉他出售" sheetId="12" r:id="rId3"/>
-    <sheet name="20150115吉它出售" sheetId="11" r:id="rId4"/>
-    <sheet name="20150113吉它买卖" sheetId="10" r:id="rId5"/>
-    <sheet name="20150111吉他出售" sheetId="9" r:id="rId6"/>
-    <sheet name="20150110吉他出售" sheetId="8" r:id="rId7"/>
-    <sheet name="20160109吉它买卖" sheetId="7" r:id="rId8"/>
-    <sheet name="20160107" sheetId="6" r:id="rId9"/>
-    <sheet name="20160104" sheetId="5" r:id="rId10"/>
-    <sheet name="20160103" sheetId="4" r:id="rId11"/>
-    <sheet name="20160102" sheetId="3" r:id="rId12"/>
-    <sheet name="20160101" sheetId="2" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
+    <sheet name="20160117吉它买卖" sheetId="13" r:id="rId3"/>
+    <sheet name="20160116吉他出售" sheetId="12" r:id="rId4"/>
+    <sheet name="20150115吉它出售" sheetId="11" r:id="rId5"/>
+    <sheet name="20150113吉它买卖" sheetId="10" r:id="rId6"/>
+    <sheet name="20150111吉他出售" sheetId="9" r:id="rId7"/>
+    <sheet name="20150110吉他出售" sheetId="8" r:id="rId8"/>
+    <sheet name="20160109吉它买卖" sheetId="7" r:id="rId9"/>
+    <sheet name="20160107" sheetId="6" r:id="rId10"/>
+    <sheet name="20160104" sheetId="5" r:id="rId11"/>
+    <sheet name="20160103" sheetId="4" r:id="rId12"/>
+    <sheet name="20160102" sheetId="3" r:id="rId13"/>
+    <sheet name="20160101" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +328,14 @@
   </si>
   <si>
     <t>吉它买卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉它出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多晶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +675,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,8 +913,16 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>20160118</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>832316347</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
@@ -941,11 +958,11 @@
       </c>
       <c r="C26" s="1">
         <f>SUM(C2:C25)</f>
-        <v>96183578226</v>
+        <v>97015894573</v>
       </c>
       <c r="D26" s="1">
         <f>C26-B26</f>
-        <v>47668868964</v>
+        <v>48501185311</v>
       </c>
     </row>
   </sheetData>
@@ -956,6 +973,133 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1">
+        <v>444444444</v>
+      </c>
+      <c r="C1" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1">
+        <f>B1*C1</f>
+        <v>2666666664</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
+        <v>48049</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="1">
+        <f>B3*C3</f>
+        <v>480490000</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1">
+        <v>18450</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17000</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D5" si="0">B4*C4</f>
+        <v>313650000</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1">
+        <v>36177</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1085310000</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f>SUM(D3:D5)</f>
+        <v>1879450000</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1068,7 +1212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -1340,7 +1484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1378,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -1703,6 +1847,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>453996997</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>453996997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>775</v>
+      </c>
+      <c r="C2">
+        <v>488154</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>378319350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <f>D1+D2</f>
+        <v>832316347</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1847,7 +2048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1904,7 +2105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1991,7 +2192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2143,7 +2344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -2178,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -2309,7 +2510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -2540,131 +2741,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1">
-        <v>444444444</v>
-      </c>
-      <c r="C1" s="1">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1">
-        <f>B1*C1</f>
-        <v>2666666664</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1">
-        <v>48049</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="1">
-        <f>B3*C3</f>
-        <v>480490000</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1">
-        <v>18450</v>
-      </c>
-      <c r="C4" s="1">
-        <v>17000</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D5" si="0">B4*C4</f>
-        <v>313650000</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1">
-        <v>36177</v>
-      </c>
-      <c r="C5" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>1085310000</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <f>SUM(D3:D5)</f>
-        <v>1879450000</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/账目/账目2016-01.xlsx
+++ b/账目/账目2016-01.xlsx
@@ -13,19 +13,21 @@
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
-    <sheet name="20160117吉它买卖" sheetId="13" r:id="rId3"/>
-    <sheet name="20160116吉他出售" sheetId="12" r:id="rId4"/>
-    <sheet name="20150115吉它出售" sheetId="11" r:id="rId5"/>
-    <sheet name="20150113吉它买卖" sheetId="10" r:id="rId6"/>
-    <sheet name="20150111吉他出售" sheetId="9" r:id="rId7"/>
-    <sheet name="20150110吉他出售" sheetId="8" r:id="rId8"/>
-    <sheet name="20160109吉它买卖" sheetId="7" r:id="rId9"/>
-    <sheet name="20160107" sheetId="6" r:id="rId10"/>
-    <sheet name="20160104" sheetId="5" r:id="rId11"/>
-    <sheet name="20160103" sheetId="4" r:id="rId12"/>
-    <sheet name="20160102" sheetId="3" r:id="rId13"/>
-    <sheet name="20160101" sheetId="2" r:id="rId14"/>
+    <sheet name="20160123吉它采购" sheetId="16" r:id="rId2"/>
+    <sheet name="20160120吉它出售" sheetId="15" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId4"/>
+    <sheet name="20160117吉它买卖" sheetId="13" r:id="rId5"/>
+    <sheet name="20160116吉他出售" sheetId="12" r:id="rId6"/>
+    <sheet name="20150115吉它出售" sheetId="11" r:id="rId7"/>
+    <sheet name="20150113吉它买卖" sheetId="10" r:id="rId8"/>
+    <sheet name="20150111吉他出售" sheetId="9" r:id="rId9"/>
+    <sheet name="20150110吉他出售" sheetId="8" r:id="rId10"/>
+    <sheet name="20160109吉它买卖" sheetId="7" r:id="rId11"/>
+    <sheet name="20160107" sheetId="6" r:id="rId12"/>
+    <sheet name="20160104" sheetId="5" r:id="rId13"/>
+    <sheet name="20160103" sheetId="4" r:id="rId14"/>
+    <sheet name="20160102" sheetId="3" r:id="rId15"/>
+    <sheet name="20160101" sheetId="2" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +338,42 @@
   </si>
   <si>
     <t>多晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分合成物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.19 21:13改单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉他出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-21 22：59改单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉它采购</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,15 +713,13 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -898,7 +934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>20150117</v>
       </c>
@@ -912,57 +948,79 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>20160118</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>832316347</v>
+        <v>6387024772</v>
       </c>
       <c r="D18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>20160120</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="1"/>
+      <c r="C19" s="1">
+        <v>15809735382</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>20160123</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3280796000</v>
+      </c>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <f>SUM(B2:B25)</f>
-        <v>48514709262</v>
+        <v>51795505262</v>
       </c>
       <c r="C26" s="1">
         <f>SUM(C2:C25)</f>
-        <v>97015894573</v>
+        <v>118380338380</v>
       </c>
       <c r="D26" s="1">
         <f>C26-B26</f>
-        <v>48501185311</v>
+        <v>66584833118</v>
       </c>
     </row>
   </sheetData>
@@ -973,6 +1031,370 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1">
+        <v>440090321</v>
+      </c>
+      <c r="D1" s="1">
+        <f>B1*C1</f>
+        <v>13202709630</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1">
+        <f>500000</f>
+        <v>500000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1999</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D4" si="0">B2*C2</f>
+        <v>999500000</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1">
+        <f>180000+1296+286460+973244</f>
+        <v>1441000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>774</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>1115334000</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <f>286000-148250</f>
+        <v>137750</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5795</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>798261250</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <f>SUM(D1:D4)</f>
+        <v>16115804880</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1">
+        <v>440200003</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2*C2</f>
+        <v>440200003</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1">
+        <v>453888886</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <f>B3*C3</f>
+        <v>1815555544</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <f>D2+D3</f>
+        <v>2255755547</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1489</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D12" si="0">B5*C5</f>
+        <v>2978000000</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1573</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>3146000000</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>235597</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>471194000</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10899</v>
+      </c>
+      <c r="C8" s="1">
+        <v>34000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>370566000</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11396</v>
+      </c>
+      <c r="C9" s="1">
+        <v>34000</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>387464000</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9506</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17000</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>161602000</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>13799</v>
+      </c>
+      <c r="C11" s="1">
+        <v>34000</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>469166000</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>28899</v>
+      </c>
+      <c r="C12" s="1">
+        <v>17000</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>491283000</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D13" s="1">
+        <f>SUM(D5:D12)</f>
+        <v>8475275000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1099,7 +1521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1212,7 +1634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -1484,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1522,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -1847,52 +2269,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B1">
-        <v>453996997</v>
+        <v>9387</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>34000</v>
       </c>
       <c r="D1">
         <f>B1*C1</f>
-        <v>453996997</v>
+        <v>319158000</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>775</v>
+        <v>13400</v>
       </c>
       <c r="C2">
-        <v>488154</v>
+        <f>6700+6000+28000</f>
+        <v>40700</v>
       </c>
       <c r="D2">
-        <f>B2*C2</f>
-        <v>378319350</v>
+        <f t="shared" ref="D2:D5" si="0">B2*C2</f>
+        <v>545380000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>32855</v>
+      </c>
+      <c r="C3">
+        <v>17000</v>
+      </c>
       <c r="D3">
-        <f>D1+D2</f>
-        <v>832316347</v>
+        <f t="shared" si="0"/>
+        <v>558535000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>12219</v>
+      </c>
+      <c r="C4">
+        <v>17000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>207723000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>1500</v>
+      </c>
+      <c r="C5">
+        <v>1100000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1650000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <f>SUM(D1:D5)</f>
+        <v>3280796000</v>
       </c>
     </row>
   </sheetData>
@@ -1903,6 +2370,225 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>478999998</v>
+      </c>
+      <c r="C1">
+        <v>33</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>15806999934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>14947</v>
+      </c>
+      <c r="C2">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>1255548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>14799</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>1479900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <f>SUM(D1:D3)</f>
+        <v>15809735382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>453996997</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>453996997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>775</v>
+      </c>
+      <c r="C2">
+        <v>488154</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>378319350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>14950</v>
+      </c>
+      <c r="C3">
+        <f>170+10000</f>
+        <v>10170</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="0">B3*C3</f>
+        <v>152041500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>3699</v>
+      </c>
+      <c r="C4">
+        <f>SUM(H7:H17)</f>
+        <v>1460575</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>5402666925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>90469</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D1:D4)</f>
+        <v>6387024772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>68600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>90469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>23730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>9526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H11">
+        <v>11114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>11755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H13">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H15">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <v>195381</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2048,7 +2734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2105,7 +2791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2192,7 +2878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2344,7 +3030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -2377,368 +3063,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1">
-        <v>440090321</v>
-      </c>
-      <c r="D1" s="1">
-        <f>B1*C1</f>
-        <v>13202709630</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1">
-        <f>500000</f>
-        <v>500000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1999</v>
-      </c>
-      <c r="D2" s="1">
-        <f t="shared" ref="D2:D4" si="0">B2*C2</f>
-        <v>999500000</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1">
-        <f>180000+1296+286460+973244</f>
-        <v>1441000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>774</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>1115334000</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1">
-        <f>286000-148250</f>
-        <v>137750</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5795</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>798261250</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <f>SUM(D1:D4)</f>
-        <v>16115804880</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1">
-        <v>440200003</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2*C2</f>
-        <v>440200003</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1">
-        <v>453888886</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <f>B3*C3</f>
-        <v>1815555544</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <f>D2+D3</f>
-        <v>2255755547</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1489</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D12" si="0">B5*C5</f>
-        <v>2978000000</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1573</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>3146000000</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1">
-        <v>235597</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>471194000</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10899</v>
-      </c>
-      <c r="C8" s="1">
-        <v>34000</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>370566000</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>11396</v>
-      </c>
-      <c r="C9" s="1">
-        <v>34000</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>387464000</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9506</v>
-      </c>
-      <c r="C10" s="1">
-        <v>17000</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>161602000</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>13799</v>
-      </c>
-      <c r="C11" s="1">
-        <v>34000</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>469166000</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>28899</v>
-      </c>
-      <c r="C12" s="1">
-        <v>17000</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>491283000</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="1">
-        <f>SUM(D5:D12)</f>
-        <v>8475275000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/账目/账目2016-01.xlsx
+++ b/账目/账目2016-01.xlsx
@@ -13,23 +13,29 @@
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="1" r:id="rId1"/>
-    <sheet name="20160123吉它采购" sheetId="16" r:id="rId2"/>
-    <sheet name="20160120吉它出售" sheetId="15" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId4"/>
-    <sheet name="20160117吉它买卖" sheetId="13" r:id="rId5"/>
-    <sheet name="20160116吉他出售" sheetId="12" r:id="rId6"/>
-    <sheet name="20150115吉它出售" sheetId="11" r:id="rId7"/>
-    <sheet name="20150113吉它买卖" sheetId="10" r:id="rId8"/>
-    <sheet name="20150111吉他出售" sheetId="9" r:id="rId9"/>
-    <sheet name="20150110吉他出售" sheetId="8" r:id="rId10"/>
-    <sheet name="20160109吉它买卖" sheetId="7" r:id="rId11"/>
-    <sheet name="20160107" sheetId="6" r:id="rId12"/>
-    <sheet name="20160104" sheetId="5" r:id="rId13"/>
-    <sheet name="20160103" sheetId="4" r:id="rId14"/>
-    <sheet name="20160102" sheetId="3" r:id="rId15"/>
-    <sheet name="20160101" sheetId="2" r:id="rId16"/>
+    <sheet name="20160131吉它出售" sheetId="22" r:id="rId2"/>
+    <sheet name="20160128吉它买卖" sheetId="21" r:id="rId3"/>
+    <sheet name="20160125吉它买卖" sheetId="20" r:id="rId4"/>
+    <sheet name="20160124吉它买卖" sheetId="19" r:id="rId5"/>
+    <sheet name="20160123吉它出售" sheetId="18" r:id="rId6"/>
+    <sheet name="2014云环采购" sheetId="17" r:id="rId7"/>
+    <sheet name="20160123吉它采购" sheetId="16" r:id="rId8"/>
+    <sheet name="20160120吉它出售" sheetId="15" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
+    <sheet name="20160117吉它买卖" sheetId="13" r:id="rId11"/>
+    <sheet name="20160116吉他出售" sheetId="12" r:id="rId12"/>
+    <sheet name="20150115吉它出售" sheetId="11" r:id="rId13"/>
+    <sheet name="20150113吉它买卖" sheetId="10" r:id="rId14"/>
+    <sheet name="20150111吉他出售" sheetId="9" r:id="rId15"/>
+    <sheet name="20150110吉他出售" sheetId="8" r:id="rId16"/>
+    <sheet name="20160109吉它买卖" sheetId="7" r:id="rId17"/>
+    <sheet name="20160107" sheetId="6" r:id="rId18"/>
+    <sheet name="20160104" sheetId="5" r:id="rId19"/>
+    <sheet name="20160103" sheetId="4" r:id="rId20"/>
+    <sheet name="20160102" sheetId="3" r:id="rId21"/>
+    <sheet name="20160101" sheetId="2" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="138">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +380,222 @@
   </si>
   <si>
     <t>吉它采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分合成物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-g出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2盾提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船插</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑插</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g小杆子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开采阵列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云环采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：12改单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分合成物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉他出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21：04改单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧同位素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c杆子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氮同位素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉它买卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁磁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑齿虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉它买卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21：14改单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉它买卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑齿虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分合成物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳米晶体管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉它出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunrg，艾利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,16 +932,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -934,7 +1158,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>20150117</v>
       </c>
@@ -948,7 +1172,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>20160118</v>
       </c>
@@ -963,7 +1187,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>20160120</v>
       </c>
@@ -977,8 +1201,14 @@
       <c r="E19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="1">
+        <v>67135534319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20160123</v>
       </c>
@@ -989,38 +1219,128 @@
       <c r="D20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20160124</v>
+      </c>
+      <c r="B21" s="1">
+        <v>14889029543</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7020147386</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20160124</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="1">
+        <v>921057582</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20160124</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5736310600</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5608207162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>20160125</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2378472</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5729715434</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>20160128</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5108610528</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4335765274</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>20160131</v>
+      </c>
       <c r="B26" s="1">
-        <f>SUM(B2:B25)</f>
-        <v>51795505262</v>
+        <v>3939316500</v>
       </c>
       <c r="C26" s="1">
-        <f>SUM(C2:C25)</f>
-        <v>118380338380</v>
-      </c>
-      <c r="D26" s="1">
-        <f>C26-B26</f>
-        <v>66584833118</v>
+        <v>6611454006</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="1">
+        <f>SUM(B2:B33)</f>
+        <v>81471150905</v>
+      </c>
+      <c r="C34" s="1">
+        <f>SUM(C2:C33)</f>
+        <v>148606685224</v>
+      </c>
+      <c r="D34" s="1">
+        <f>C34-B34</f>
+        <v>67135534319</v>
       </c>
     </row>
   </sheetData>
@@ -1031,6 +1351,630 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>453996997</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>453996997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>775</v>
+      </c>
+      <c r="C2">
+        <v>488154</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>378319350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>14950</v>
+      </c>
+      <c r="C3">
+        <f>170+10000</f>
+        <v>10170</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="0">B3*C3</f>
+        <v>152041500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>3699</v>
+      </c>
+      <c r="C4">
+        <f>SUM(H7:H17)</f>
+        <v>1460575</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>5402666925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>90469</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D1:D4)</f>
+        <v>6387024772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>68600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>90469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>23730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>9526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H11">
+        <v>11114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>11755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H13">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H15">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <v>195381</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>483899999</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>483899999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="0">B3*C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>10817</v>
+      </c>
+      <c r="C4">
+        <v>17000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>183889000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>9492</v>
+      </c>
+      <c r="C5">
+        <v>17000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>161364000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>12220</v>
+      </c>
+      <c r="C6">
+        <v>17000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>207740000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>13522</v>
+      </c>
+      <c r="C7">
+        <v>34000</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>459748000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>34997</v>
+      </c>
+      <c r="C8">
+        <v>17000</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>594949000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>16000</v>
+      </c>
+      <c r="C9">
+        <v>17000</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>272000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <f>SUM(D4:D9)</f>
+        <v>1879690000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>489999999</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>5879999988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>14962</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>29924000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <f>D1+D2</f>
+        <v>5909923988</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1">
+        <v>3740</v>
+      </c>
+      <c r="C1">
+        <f>17880+50602+72765+79380+26460+7570+11000+100000+177+78+10800+50000+22146+14000</f>
+        <v>462858</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>1731088920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>2497</v>
+      </c>
+      <c r="C2">
+        <v>504384</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D4" si="0">B2*C2</f>
+        <v>1259446848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>489999999</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>4899999990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>453996998</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>6355957972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <f>SUM(D1:D4)</f>
+        <v>14246493730</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1">
+        <v>14987</v>
+      </c>
+      <c r="C2" s="1">
+        <f>1275+88+10000</f>
+        <v>11363</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2*C2</f>
+        <v>170297281</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5793</v>
+      </c>
+      <c r="C3" s="1">
+        <f>10000+18383+7654+13903+13903+5887+46200+10000+20113+2207</f>
+        <v>148250</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D8" si="0">B3*C3</f>
+        <v>858812250</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5793</v>
+      </c>
+      <c r="C4" s="1">
+        <f>114745+90936</f>
+        <v>205681</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1191510033</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <f>SUM(D2:D4)</f>
+        <v>2220619564</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>26997</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1349850000</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6499</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>649900000</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9499</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>949900000</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <f>SUM(D6:D8)</f>
+        <v>2949650000</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1">
+        <v>446999887</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>8939997740</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1161,7 +2105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -1394,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1521,7 +2465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1634,7 +2578,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>507700979</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>1015401958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2">
+        <v>3512</v>
+      </c>
+      <c r="C2">
+        <v>101516</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D5" si="0">B2*C2</f>
+        <v>356524192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3">
+        <v>487777776</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>2926666656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4">
+        <v>6600</v>
+      </c>
+      <c r="C4">
+        <f>6865+143135+740+147+1000+323+7060+20000+120730</f>
+        <v>300000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1980000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5">
+        <v>8972</v>
+      </c>
+      <c r="C5">
+        <v>37100</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>332861200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <f>SUM(D1:D5)</f>
+        <v>6611454006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10">
+        <v>90559</v>
+      </c>
+      <c r="C10">
+        <v>43500</v>
+      </c>
+      <c r="D10">
+        <f>B10*C10</f>
+        <v>3939316500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -1906,7 +2968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1944,7 +3006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -2267,7 +3329,808 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2">
+        <v>2910</v>
+      </c>
+      <c r="C2">
+        <v>500000</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>1455000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3">
+        <v>804</v>
+      </c>
+      <c r="C3">
+        <f>135+24+102880+82000+1935+128638+135572</f>
+        <v>451184</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="0">B3*C3</f>
+        <v>362751936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4">
+        <v>59399986</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>356399916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5">
+        <v>14736</v>
+      </c>
+      <c r="C5">
+        <f>129059</f>
+        <v>129059</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1901813424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6">
+        <v>129899999</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>259799998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>4335765274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>99103</v>
+      </c>
+      <c r="C8">
+        <v>49976</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4952771528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>9167</v>
+      </c>
+      <c r="C9">
+        <v>17000</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>155839000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <f>D8+D9</f>
+        <v>5108610528</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>487999999</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>975999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>14771</v>
+      </c>
+      <c r="C2">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D8" si="0">B2*C2</f>
+        <v>147710000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3">
+        <v>5697</v>
+      </c>
+      <c r="C3">
+        <f>20000+18000+27782</f>
+        <v>65782</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>374760054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>48189</v>
+      </c>
+      <c r="C4">
+        <f>1007+10000+790+942+197+155+1710</f>
+        <v>14801</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>713245389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>483999999</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3387999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>130000000</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>130000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <f>SUM(D1:D6)</f>
+        <v>5729715434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>99103</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2378472</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2">
+        <v>816</v>
+      </c>
+      <c r="C2">
+        <f>11111+2000000+735475</f>
+        <v>2746586</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>2241214176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>480998998</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>3366992986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <f>D2+D3</f>
+        <v>5608207162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>1577</v>
+      </c>
+      <c r="C5">
+        <v>1500000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D9" si="0">B5*C5</f>
+        <v>2365500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>1396000000</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1396000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7">
+        <v>20998800</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>41997600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8">
+        <v>1489</v>
+      </c>
+      <c r="C8">
+        <v>1200000</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1786800000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>8589</v>
+      </c>
+      <c r="C9">
+        <v>17000</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>146013000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <f>SUM(D5:D9)</f>
+        <v>5736310600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1">
+        <v>3692</v>
+      </c>
+      <c r="C1">
+        <f>3921+387+555+7800+1170+26000+9993</f>
+        <v>49826</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>183957592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>59899998</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D3" si="0">B2*C2</f>
+        <v>239599992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>497499998</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>497499998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <f>SUM(D1:D3)</f>
+        <v>921057582</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>497499998</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>4974999980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>493900024</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">B3*C3</f>
+        <v>1481700072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>816</v>
+      </c>
+      <c r="C4">
+        <f>3718+99000+38850</f>
+        <v>141568</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>115519488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>59899998</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>59899998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>3692</v>
+      </c>
+      <c r="C6">
+        <f>123+8250+12000+20000+43200+3921</f>
+        <v>87494</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>323027848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>65000000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>65000000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>7020147386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>519999899</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>B9*C9</f>
+        <v>519999899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>8000000</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D19" si="1">B10*C10</f>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11">
+        <v>900000</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>118899991</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>118899991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13">
+        <v>3699999</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>3699999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14">
+        <v>21990000</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>43980000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15">
+        <v>825999999</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>825999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16">
+        <v>378999990</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>5684999850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>91989999</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1379849985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>23449994</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>703499820</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19">
+        <v>55992</v>
+      </c>
+      <c r="C19">
+        <v>100000</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>5599200000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D20">
+        <f>SUM(D9:D19)</f>
+        <v>14889029543</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2369,7 +4232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2439,628 +4302,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1">
-        <v>453996997</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f>B1*C1</f>
-        <v>453996997</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
-        <v>775</v>
-      </c>
-      <c r="C2">
-        <v>488154</v>
-      </c>
-      <c r="D2">
-        <f>B2*C2</f>
-        <v>378319350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3">
-        <v>14950</v>
-      </c>
-      <c r="C3">
-        <f>170+10000</f>
-        <v>10170</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D4" si="0">B3*C3</f>
-        <v>152041500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4">
-        <v>3699</v>
-      </c>
-      <c r="C4">
-        <f>SUM(H7:H17)</f>
-        <v>1460575</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>5402666925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C5">
-        <v>90469</v>
-      </c>
-      <c r="D5">
-        <f>SUM(D1:D4)</f>
-        <v>6387024772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H7">
-        <v>68600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H8">
-        <v>90469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H9">
-        <v>23730</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H10">
-        <v>9526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H11">
-        <v>11114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H12">
-        <v>11755</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H13">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H14">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H15">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H16">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H17">
-        <v>195381</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>483899999</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>B2*C2</f>
-        <v>483899999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">B3*C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4">
-        <v>10817</v>
-      </c>
-      <c r="C4">
-        <v>17000</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>183889000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>9492</v>
-      </c>
-      <c r="C5">
-        <v>17000</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>161364000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>12220</v>
-      </c>
-      <c r="C6">
-        <v>17000</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>207740000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>13522</v>
-      </c>
-      <c r="C7">
-        <v>34000</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>459748000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>34997</v>
-      </c>
-      <c r="C8">
-        <v>17000</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>594949000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>16000</v>
-      </c>
-      <c r="C9">
-        <v>17000</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>272000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D10">
-        <f>SUM(D4:D9)</f>
-        <v>1879690000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1">
-        <v>489999999</v>
-      </c>
-      <c r="C1">
-        <v>12</v>
-      </c>
-      <c r="D1">
-        <f>B1*C1</f>
-        <v>5879999988</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2">
-        <v>14962</v>
-      </c>
-      <c r="C2">
-        <v>2000</v>
-      </c>
-      <c r="D2">
-        <f>B2*C2</f>
-        <v>29924000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D3">
-        <f>D1+D2</f>
-        <v>5909923988</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1">
-        <v>3740</v>
-      </c>
-      <c r="C1">
-        <f>17880+50602+72765+79380+26460+7570+11000+100000+177+78+10800+50000+22146+14000</f>
-        <v>462858</v>
-      </c>
-      <c r="D1">
-        <f>B1*C1</f>
-        <v>1731088920</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>2497</v>
-      </c>
-      <c r="C2">
-        <v>504384</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D4" si="0">B2*C2</f>
-        <v>1259446848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
-        <v>489999999</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>4899999990</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <v>453996998</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>6355957972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D5">
-        <f>SUM(D1:D4)</f>
-        <v>14246493730</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1">
-        <v>14987</v>
-      </c>
-      <c r="C2" s="1">
-        <f>1275+88+10000</f>
-        <v>11363</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2*C2</f>
-        <v>170297281</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5793</v>
-      </c>
-      <c r="C3" s="1">
-        <f>10000+18383+7654+13903+13903+5887+46200+10000+20113+2207</f>
-        <v>148250</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D8" si="0">B3*C3</f>
-        <v>858812250</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5793</v>
-      </c>
-      <c r="C4" s="1">
-        <f>114745+90936</f>
-        <v>205681</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>1191510033</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <f>SUM(D2:D4)</f>
-        <v>2220619564</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1">
-        <v>26997</v>
-      </c>
-      <c r="C6" s="1">
-        <v>50000</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>1349850000</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6499</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>649900000</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9499</v>
-      </c>
-      <c r="C8" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>949900000</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <f>SUM(D6:D8)</f>
-        <v>2949650000</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1">
-        <v>446999887</v>
-      </c>
-      <c r="C1">
-        <v>20</v>
-      </c>
-      <c r="D1">
-        <f>B1*C1</f>
-        <v>8939997740</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/账目/账目2016-01.xlsx
+++ b/账目/账目2016-01.xlsx
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1222,7 +1222,10 @@
       <c r="L20" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <f>M19*0.4</f>
+        <v>26854213727.600002</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
